--- a/data/DOERefBuildings/BLD14.xlsx
+++ b/data/DOERefBuildings/BLD14.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maoj\Dropbox\UWG_Matlab-master\data\DOERefBuildings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\UWG\data\DOERefBuildings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="491505" yWindow="210" windowWidth="19320" windowHeight="11490" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="471090" yWindow="210" windowWidth="19320" windowHeight="11490" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="50" r:id="rId1"/>
@@ -3645,8 +3645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3793,7 +3793,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="81">
-        <v>13.47828054</v>
+        <v>13.331091536182738</v>
       </c>
       <c r="O3" s="81">
         <v>0</v>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="N4" s="81">
         <f>$N$3</f>
-        <v>13.47828054</v>
+        <v>13.331091536182738</v>
       </c>
       <c r="O4" s="81">
         <v>0</v>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="N5" s="81">
         <f>$N$3</f>
-        <v>13.47828054</v>
+        <v>13.331091536182738</v>
       </c>
       <c r="O5" s="81">
         <v>0</v>
@@ -7308,99 +7308,99 @@
         <v>130</v>
       </c>
       <c r="G11" s="79">
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="H11" s="79">
         <f>$G$11</f>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="I11" s="79">
         <f t="shared" ref="I11:AD13" si="0">$G$11</f>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="J11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="K11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="L11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="M11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="N11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="O11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="P11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Q11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="R11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="S11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="T11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="U11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="V11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="W11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="X11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Y11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Z11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AA11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AB11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AC11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AD11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AE11" s="79">
         <v>630</v>
@@ -7425,99 +7425,99 @@
       </c>
       <c r="G12" s="79">
         <f>$G$11</f>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="H12" s="79">
         <f t="shared" ref="H12" si="1">$G$11</f>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="I12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="J12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="K12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="L12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="M12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="N12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="O12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="P12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Q12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="R12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="S12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="T12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="U12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="V12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="W12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="X12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Y12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Z12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AA12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AB12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AC12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AD12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AE12" s="79">
         <v>624</v>
@@ -7538,99 +7538,99 @@
       </c>
       <c r="G13" s="79">
         <f t="shared" ref="G13:V16" si="2">$G$11</f>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="H13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="I13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="J13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="K13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="L13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="M13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="N13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="O13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="P13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Q13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="R13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="S13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="T13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="U13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="V13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="W13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="X13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Y13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Z13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AA13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AB13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AC13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AD13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AE13" s="79">
         <v>654</v>
@@ -7659,99 +7659,99 @@
       </c>
       <c r="G14" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="H14" s="79">
         <f t="shared" ref="H14:AD16" si="3">$G$11</f>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="I14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="J14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="K14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="L14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="M14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="N14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="O14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="P14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Q14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="R14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="S14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="T14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="U14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="V14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="W14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="X14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Y14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Z14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AA14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AB14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AC14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AD14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AE14" s="79">
         <v>455.4</v>
@@ -7776,99 +7776,99 @@
       </c>
       <c r="G15" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="H15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="I15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="J15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="K15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="L15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="M15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="N15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="O15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="P15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Q15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="R15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="S15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="T15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="U15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="V15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="W15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="X15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Y15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Z15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AA15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AB15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AC15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AD15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AE15" s="79">
         <v>460.8</v>
@@ -7889,99 +7889,99 @@
       </c>
       <c r="G16" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="H16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="I16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="J16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="K16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="L16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="M16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="N16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="O16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="P16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Q16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="R16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="S16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="T16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="U16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="V16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="W16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="X16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Y16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="Z16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AA16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AB16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AC16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AD16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>22.005069812337766</v>
       </c>
       <c r="AE16" s="79">
         <v>433.8</v>

--- a/data/DOERefBuildings/BLD14.xlsx
+++ b/data/DOERefBuildings/BLD14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="471090" yWindow="210" windowWidth="19320" windowHeight="11490" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="471090" yWindow="210" windowWidth="19320" windowHeight="11490" tabRatio="853" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="50" r:id="rId1"/>
@@ -3645,7 +3645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -3793,7 +3793,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="81">
-        <v>13.331091536182738</v>
+        <v>13</v>
       </c>
       <c r="O3" s="81">
         <v>0</v>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="N4" s="81">
         <f>$N$3</f>
-        <v>13.331091536182738</v>
+        <v>13</v>
       </c>
       <c r="O4" s="81">
         <v>0</v>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="N5" s="81">
         <f>$N$3</f>
-        <v>13.331091536182738</v>
+        <v>13</v>
       </c>
       <c r="O5" s="81">
         <v>0</v>
@@ -6337,7 +6337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -7308,99 +7308,99 @@
         <v>130</v>
       </c>
       <c r="G11" s="79">
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="H11" s="79">
         <f>$G$11</f>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="I11" s="79">
         <f t="shared" ref="I11:AD13" si="0">$G$11</f>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="J11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="K11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="L11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="M11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="N11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="O11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="P11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="R11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="S11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="T11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="U11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="V11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="W11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="X11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Y11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Z11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AA11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AB11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AC11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AD11" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AE11" s="79">
         <v>630</v>
@@ -7425,99 +7425,99 @@
       </c>
       <c r="G12" s="79">
         <f>$G$11</f>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="H12" s="79">
         <f t="shared" ref="H12" si="1">$G$11</f>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="I12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="J12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="K12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="L12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="M12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="N12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="O12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="P12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="R12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="S12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="T12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="U12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="V12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="W12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="X12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Y12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Z12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AA12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AB12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AC12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AD12" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AE12" s="79">
         <v>624</v>
@@ -7538,99 +7538,99 @@
       </c>
       <c r="G13" s="79">
         <f t="shared" ref="G13:V16" si="2">$G$11</f>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="H13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="I13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="J13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="K13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="L13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="M13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="N13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="O13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="P13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="R13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="S13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="T13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="U13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="V13" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="W13" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="X13" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Y13" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Z13" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AA13" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AB13" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AC13" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AD13" s="79">
         <f t="shared" si="0"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AE13" s="79">
         <v>654</v>
@@ -7659,99 +7659,99 @@
       </c>
       <c r="G14" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="H14" s="79">
         <f t="shared" ref="H14:AD16" si="3">$G$11</f>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="I14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="J14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="K14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="L14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="M14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="N14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="O14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="P14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="R14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="S14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="T14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="U14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="V14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="W14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="X14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Y14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Z14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AA14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AB14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AC14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AD14" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AE14" s="79">
         <v>455.4</v>
@@ -7776,99 +7776,99 @@
       </c>
       <c r="G15" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="H15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="I15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="J15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="K15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="L15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="M15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="N15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="O15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="P15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="R15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="S15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="T15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="U15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="V15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="W15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="X15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Y15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Z15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AA15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AB15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AC15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AD15" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AE15" s="79">
         <v>460.8</v>
@@ -7889,99 +7889,99 @@
       </c>
       <c r="G16" s="79">
         <f t="shared" si="2"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="H16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="I16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="J16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="K16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="L16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="M16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="N16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="O16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="P16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="R16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="S16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="T16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="U16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="V16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="W16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="X16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Y16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="Z16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AA16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AB16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AC16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AD16" s="79">
         <f t="shared" si="3"/>
-        <v>22.005069812337766</v>
+        <v>22</v>
       </c>
       <c r="AE16" s="79">
         <v>433.8</v>

--- a/data/DOERefBuildings/BLD14.xlsx
+++ b/data/DOERefBuildings/BLD14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="471090" yWindow="210" windowWidth="19320" windowHeight="11490" tabRatio="853" activeTab="3"/>
+    <workbookView xWindow="471090" yWindow="210" windowWidth="19320" windowHeight="11490" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="50" r:id="rId1"/>
@@ -3645,7 +3645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -3793,7 +3793,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="81">
-        <v>13</v>
+        <v>12.4789124008953</v>
       </c>
       <c r="O3" s="81">
         <v>0</v>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="N4" s="81">
         <f>$N$3</f>
-        <v>13</v>
+        <v>12.4789124008953</v>
       </c>
       <c r="O4" s="81">
         <v>0</v>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="N5" s="81">
         <f>$N$3</f>
-        <v>13</v>
+        <v>12.4789124008953</v>
       </c>
       <c r="O5" s="81">
         <v>0</v>
@@ -6337,7 +6337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="F6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -7308,99 +7308,99 @@
         <v>130</v>
       </c>
       <c r="G11" s="79">
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="H11" s="79">
         <f>$G$11</f>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="I11" s="79">
         <f t="shared" ref="I11:AD13" si="0">$G$11</f>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="J11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="K11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="L11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="M11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="N11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="O11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="P11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Q11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="R11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="S11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="T11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="U11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="V11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="W11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="X11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Y11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Z11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AA11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AB11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AC11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AD11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AE11" s="79">
         <v>630</v>
@@ -7425,99 +7425,99 @@
       </c>
       <c r="G12" s="79">
         <f>$G$11</f>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="H12" s="79">
         <f t="shared" ref="H12" si="1">$G$11</f>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="I12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="J12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="K12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="L12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="M12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="N12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="O12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="P12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Q12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="R12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="S12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="T12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="U12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="V12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="W12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="X12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Y12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Z12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AA12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AB12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AC12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AD12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AE12" s="79">
         <v>624</v>
@@ -7538,99 +7538,99 @@
       </c>
       <c r="G13" s="79">
         <f t="shared" ref="G13:V16" si="2">$G$11</f>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="H13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="I13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="J13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="K13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="L13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="M13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="N13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="O13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="P13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Q13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="R13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="S13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="T13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="U13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="V13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="W13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="X13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Y13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Z13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AA13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AB13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AC13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AD13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AE13" s="79">
         <v>654</v>
@@ -7659,99 +7659,99 @@
       </c>
       <c r="G14" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="H14" s="79">
         <f t="shared" ref="H14:AD16" si="3">$G$11</f>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="I14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="J14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="K14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="L14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="M14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="N14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="O14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="P14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Q14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="R14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="S14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="T14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="U14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="V14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="W14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="X14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Y14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Z14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AA14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AB14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AC14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AD14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AE14" s="79">
         <v>455.4</v>
@@ -7776,99 +7776,99 @@
       </c>
       <c r="G15" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="H15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="I15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="J15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="K15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="L15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="M15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="N15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="O15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="P15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Q15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="R15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="S15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="T15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="U15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="V15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="W15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="X15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Y15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Z15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AA15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AB15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AC15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AD15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AE15" s="79">
         <v>460.8</v>
@@ -7889,99 +7889,99 @@
       </c>
       <c r="G16" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="H16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="I16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="J16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="K16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="L16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="M16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="N16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="O16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="P16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Q16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="R16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="S16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="T16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="U16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="V16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="W16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="X16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Y16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="Z16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AA16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AB16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AC16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AD16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23.356036669280886</v>
       </c>
       <c r="AE16" s="79">
         <v>433.8</v>

--- a/data/DOERefBuildings/BLD14.xlsx
+++ b/data/DOERefBuildings/BLD14.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\UWG\data\DOERefBuildings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maoj\Dropbox\UWG_Matlab-master\data\DOERefBuildings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="471090" yWindow="210" windowWidth="19320" windowHeight="11490" tabRatio="853" activeTab="3"/>
+    <workbookView xWindow="477555" yWindow="210" windowWidth="19320" windowHeight="11490" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="50" r:id="rId1"/>
@@ -3449,7 +3449,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3533,15 +3533,15 @@
         <v>561</v>
       </c>
       <c r="D5" s="8">
-        <v>0.52</v>
+        <v>0.5347407247</v>
       </c>
       <c r="E5" s="8">
         <f>$D$5</f>
-        <v>0.52</v>
+        <v>0.5347407247</v>
       </c>
       <c r="F5" s="8">
         <f>$D$5</f>
-        <v>0.52</v>
+        <v>0.5347407247</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.15">
@@ -3645,8 +3645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3787,13 +3787,13 @@
       <c r="K3" s="25"/>
       <c r="L3" s="32">
         <f>F3/L6</f>
-        <v>107.19591912282296</v>
+        <v>83.638140537441274</v>
       </c>
       <c r="M3" s="81">
-        <v>10</v>
+        <v>11.8554336</v>
       </c>
       <c r="N3" s="81">
-        <v>13</v>
+        <v>13.47828054</v>
       </c>
       <c r="O3" s="81">
         <v>0</v>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="81">
-        <v>0.33</v>
+        <v>0.4974477511</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="12.75" x14ac:dyDescent="0.15">
@@ -3843,15 +3843,15 @@
       <c r="K4" s="25"/>
       <c r="L4" s="32">
         <f>$L$3</f>
-        <v>107.19591912282296</v>
+        <v>83.638140537441274</v>
       </c>
       <c r="M4" s="81">
         <f>$M$3</f>
-        <v>10</v>
+        <v>11.8554336</v>
       </c>
       <c r="N4" s="81">
         <f>$N$3</f>
-        <v>13</v>
+        <v>13.47828054</v>
       </c>
       <c r="O4" s="81">
         <v>0</v>
@@ -3872,7 +3872,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="81">
         <f>$U$3</f>
-        <v>0.33</v>
+        <v>0.4974477511</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.15">
@@ -3903,15 +3903,15 @@
       <c r="K5" s="25"/>
       <c r="L5" s="32">
         <f>$L$3</f>
-        <v>107.19591912282296</v>
+        <v>83.638140537441274</v>
       </c>
       <c r="M5" s="81">
         <f>$M$3</f>
-        <v>10</v>
+        <v>11.8554336</v>
       </c>
       <c r="N5" s="81">
         <f>$N$3</f>
-        <v>13</v>
+        <v>13.47828054</v>
       </c>
       <c r="O5" s="81">
         <v>0</v>
@@ -3932,12 +3932,12 @@
       <c r="T5" s="1"/>
       <c r="U5" s="81">
         <f>$U$3</f>
-        <v>0.33</v>
+        <v>0.4974477511</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L6">
-        <v>19.5</v>
+        <v>24.992430599999999</v>
       </c>
     </row>
   </sheetData>
@@ -3950,7 +3950,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -4178,67 +4178,67 @@
       </c>
       <c r="E5" s="53">
         <f>1/E38</f>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="F5" s="53">
         <f>$E$5</f>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="G5" s="53">
         <f t="shared" ref="G5:T5" si="0">$E$5</f>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="H5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="I5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="J5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="K5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="L5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="M5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="N5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="O5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="P5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="Q5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="R5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="S5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="T5" s="53">
         <f t="shared" si="0"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -4313,67 +4313,67 @@
         <v>196</v>
       </c>
       <c r="E7" s="53">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="F7" s="53">
         <f>$E$7</f>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="G7" s="53">
         <f t="shared" ref="G7:T7" si="1">$E$7</f>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="H7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="I7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="J7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="K7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="L7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="N7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="O7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="P7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="Q7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="R7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="S7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="T7" s="53">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -4388,67 +4388,67 @@
         <v>197</v>
       </c>
       <c r="E8" s="53">
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="F8" s="53">
         <f>$E$8</f>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="G8" s="53">
         <f t="shared" ref="G8:T8" si="2">$E$8</f>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="H8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="I8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="J8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="K8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="L8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="M8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="N8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="O8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="P8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="Q8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="R8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="S8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="T8" s="53">
         <f t="shared" si="2"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -4463,67 +4463,67 @@
         <v>43</v>
       </c>
       <c r="E9" s="53">
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="F9" s="53">
         <f>$E$9</f>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="G9" s="53">
         <f t="shared" ref="G9:T9" si="3">$E$9</f>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="H9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="I9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="J9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="K9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="L9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="M9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="N9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="O9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="P9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="Q9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="R9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="S9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="T9" s="53">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -4658,67 +4658,67 @@
         <v>62</v>
       </c>
       <c r="E12" s="83">
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="F12" s="83">
         <f>$E$12</f>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="G12" s="83">
         <f t="shared" ref="G12:T12" si="4">$E$12</f>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="H12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="I12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="J12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="K12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="L12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="M12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="N12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="O12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="P12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="Q12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="R12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="S12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="T12" s="83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -4914,67 +4914,67 @@
       </c>
       <c r="E16" s="53">
         <f>$E$5</f>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="F16" s="53">
         <f t="shared" ref="F16:T16" si="5">$E$5</f>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="G16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="H16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="I16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="K16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="L16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="M16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="N16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="O16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="P16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="Q16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="R16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="S16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="T16" s="53">
         <f t="shared" si="5"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5050,67 +5050,67 @@
       </c>
       <c r="E18" s="53">
         <f>$E$7</f>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="F18" s="53">
         <f t="shared" ref="F18:T18" si="6">$E$7</f>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="G18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="H18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="I18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="J18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="K18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="L18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="N18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="O18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="P18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="Q18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="R18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="S18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="T18" s="53">
         <f t="shared" si="6"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5126,67 +5126,67 @@
       </c>
       <c r="E19" s="53">
         <f>$E$8</f>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="F19" s="53">
         <f t="shared" ref="F19:T19" si="7">$E$8</f>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="G19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="H19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="I19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="K19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="L19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="M19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="N19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="O19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="P19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="Q19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="R19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="S19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="T19" s="53">
         <f t="shared" si="7"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5202,67 +5202,67 @@
       </c>
       <c r="E20" s="53">
         <f>$E$9</f>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="F20" s="53">
         <f t="shared" ref="F20:T20" si="8">$E$9</f>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="G20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="H20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="I20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="J20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="K20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="L20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="M20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="N20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="O20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="P20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="Q20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="R20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="S20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="T20" s="53">
         <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5398,67 +5398,67 @@
       </c>
       <c r="E23" s="83">
         <f>$E$12</f>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="F23" s="83">
         <f t="shared" ref="F23:T23" si="9">$E$12</f>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="G23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="H23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="I23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="J23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="K23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="L23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="M23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="N23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="O23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="P23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="Q23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="R23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="S23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="T23" s="83">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5654,67 +5654,67 @@
       </c>
       <c r="E27" s="53">
         <f>$E$5</f>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="F27" s="53">
         <f t="shared" ref="F27:T27" si="10">$E$5</f>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="G27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="H27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="I27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="J27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="K27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="L27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="M27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="N27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="O27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="P27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="Q27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="R27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="S27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
       <c r="T27" s="53">
         <f t="shared" si="10"/>
-        <v>0.39525691699604748</v>
+        <v>0.33005307466654926</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5790,67 +5790,67 @@
       </c>
       <c r="E29" s="53">
         <f>$E$7</f>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="F29" s="53">
         <f t="shared" ref="F29:T29" si="11">$E$7</f>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="G29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="H29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="I29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="J29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="K29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="L29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="N29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="O29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="P29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="Q29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="R29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="S29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="T29" s="53">
         <f t="shared" si="11"/>
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5866,67 +5866,67 @@
       </c>
       <c r="E30" s="53">
         <f>$E$8</f>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="F30" s="53">
         <f t="shared" ref="F30:T30" si="12">$E$8</f>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="G30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="H30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="I30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="J30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="K30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="L30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="M30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="N30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="O30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="P30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="Q30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="R30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="S30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
       <c r="T30" s="53">
         <f t="shared" si="12"/>
-        <v>3.41</v>
+        <v>2.6563868020000001</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5942,67 +5942,67 @@
       </c>
       <c r="E31" s="53">
         <f>$E$9</f>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="F31" s="53">
         <f t="shared" ref="F31:T31" si="13">$E$9</f>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="G31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="H31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="I31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="J31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="K31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="L31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="M31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="N31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="O31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="P31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="Q31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="R31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="S31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
       <c r="T31" s="53">
         <f t="shared" si="13"/>
-        <v>0.56999999999999995</v>
+        <v>0.63428316309999999</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -6138,67 +6138,67 @@
       </c>
       <c r="E34" s="83">
         <f>$E$12</f>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="F34" s="83">
         <f t="shared" ref="F34:T34" si="14">$E$12</f>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="G34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="H34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="I34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="J34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="K34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="L34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="M34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="N34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="O34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="P34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="Q34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="R34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="S34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
       <c r="T34" s="83">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2.2308395280000002</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -6322,7 +6322,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="E38">
-        <v>2.5299999999999998</v>
+        <v>3.0298157379999999</v>
       </c>
     </row>
   </sheetData>
@@ -6337,7 +6337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="F6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -7308,99 +7308,99 @@
         <v>130</v>
       </c>
       <c r="G11" s="79">
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="H11" s="79">
         <f>$G$11</f>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="I11" s="79">
         <f t="shared" ref="I11:AD13" si="0">$G$11</f>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="J11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="K11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="L11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="M11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="N11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="O11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="P11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Q11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="R11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="S11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="T11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="U11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="V11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="W11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="X11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Y11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Z11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AA11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AB11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AC11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AD11" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AE11" s="79">
         <v>630</v>
@@ -7425,99 +7425,99 @@
       </c>
       <c r="G12" s="79">
         <f>$G$11</f>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="H12" s="79">
         <f t="shared" ref="H12" si="1">$G$11</f>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="I12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="J12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="K12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="L12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="M12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="N12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="O12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="P12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Q12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="R12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="S12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="T12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="U12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="V12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="W12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="X12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Y12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Z12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AA12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AB12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AC12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AD12" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AE12" s="79">
         <v>624</v>
@@ -7538,99 +7538,99 @@
       </c>
       <c r="G13" s="79">
         <f t="shared" ref="G13:V16" si="2">$G$11</f>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="H13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="I13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="J13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="K13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="L13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="M13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="N13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="O13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="P13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Q13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="R13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="S13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="T13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="U13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="V13" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="W13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="X13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Y13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Z13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AA13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AB13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AC13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AD13" s="79">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AE13" s="79">
         <v>654</v>
@@ -7659,99 +7659,99 @@
       </c>
       <c r="G14" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="H14" s="79">
         <f t="shared" ref="H14:AD16" si="3">$G$11</f>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="I14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="J14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="K14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="L14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="M14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="N14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="O14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="P14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Q14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="R14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="S14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="T14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="U14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="V14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="W14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="X14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Y14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Z14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AA14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AB14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AC14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AD14" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AE14" s="79">
         <v>455.4</v>
@@ -7776,99 +7776,99 @@
       </c>
       <c r="G15" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="H15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="I15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="J15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="K15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="L15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="M15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="N15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="O15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="P15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Q15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="R15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="S15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="T15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="U15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="V15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="W15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="X15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Y15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Z15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AA15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AB15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AC15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AD15" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AE15" s="79">
         <v>460.8</v>
@@ -7889,99 +7889,99 @@
       </c>
       <c r="G16" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="H16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="I16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="J16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="K16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="L16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="M16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="N16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="O16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="P16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Q16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="R16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="S16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="T16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="U16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="V16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="W16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="X16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Y16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="Z16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AA16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AB16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AC16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AD16" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20.112982349999999</v>
       </c>
       <c r="AE16" s="79">
         <v>433.8</v>

--- a/data/DOERefBuildings/BLD14.xlsx
+++ b/data/DOERefBuildings/BLD14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="477555" yWindow="210" windowWidth="19320" windowHeight="11490" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="478485" yWindow="210" windowWidth="19320" windowHeight="11490" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="50" r:id="rId1"/>
@@ -3449,7 +3449,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3533,15 +3533,15 @@
         <v>561</v>
       </c>
       <c r="D5" s="8">
-        <v>0.5347407247</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="8">
         <f>$D$5</f>
-        <v>0.5347407247</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="8">
         <f>$D$5</f>
-        <v>0.5347407247</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.15">
@@ -3646,7 +3646,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3790,7 +3790,7 @@
         <v>83.638140537441274</v>
       </c>
       <c r="M3" s="81">
-        <v>11.8554336</v>
+        <v>9.9</v>
       </c>
       <c r="N3" s="81">
         <v>13.47828054</v>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="M4" s="81">
         <f>$M$3</f>
-        <v>11.8554336</v>
+        <v>9.9</v>
       </c>
       <c r="N4" s="81">
         <f>$N$3</f>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="M5" s="81">
         <f>$M$3</f>
-        <v>11.8554336</v>
+        <v>9.9</v>
       </c>
       <c r="N5" s="81">
         <f>$N$3</f>
@@ -3950,7 +3950,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -4178,67 +4178,67 @@
       </c>
       <c r="E5" s="53">
         <f>1/E38</f>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="F5" s="53">
         <f>$E$5</f>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="G5" s="53">
         <f t="shared" ref="G5:T5" si="0">$E$5</f>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="H5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="I5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="J5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="K5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="M5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="N5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="O5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="P5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="Q5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="R5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="S5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="T5" s="53">
         <f t="shared" si="0"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -4388,67 +4388,67 @@
         <v>197</v>
       </c>
       <c r="E8" s="53">
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="F8" s="53">
         <f>$E$8</f>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="G8" s="53">
         <f t="shared" ref="G8:T8" si="2">$E$8</f>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="H8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="I8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="J8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="K8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="L8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="M8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="N8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="O8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="P8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="Q8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="R8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="S8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="T8" s="53">
         <f t="shared" si="2"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -4463,67 +4463,67 @@
         <v>43</v>
       </c>
       <c r="E9" s="53">
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="F9" s="53">
         <f>$E$9</f>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="G9" s="53">
         <f t="shared" ref="G9:T9" si="3">$E$9</f>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="H9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="I9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="J9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="K9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="L9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="M9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="N9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="O9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="P9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="Q9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="R9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="S9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="T9" s="53">
         <f t="shared" si="3"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -4914,67 +4914,67 @@
       </c>
       <c r="E16" s="53">
         <f>$E$5</f>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="F16" s="53">
         <f t="shared" ref="F16:T16" si="5">$E$5</f>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="G16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="H16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="I16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="K16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="M16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="N16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="O16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="P16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="Q16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="R16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="S16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="T16" s="53">
         <f t="shared" si="5"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5126,67 +5126,67 @@
       </c>
       <c r="E19" s="53">
         <f>$E$8</f>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="F19" s="53">
         <f t="shared" ref="F19:T19" si="7">$E$8</f>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="G19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="H19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="I19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="K19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="L19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="M19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="N19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="O19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="P19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="Q19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="R19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="S19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="T19" s="53">
         <f t="shared" si="7"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5202,67 +5202,67 @@
       </c>
       <c r="E20" s="53">
         <f>$E$9</f>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="F20" s="53">
         <f t="shared" ref="F20:T20" si="8">$E$9</f>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="G20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="H20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="I20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="J20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="K20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="L20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="M20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="N20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="O20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="P20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="Q20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="R20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="S20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="T20" s="53">
         <f t="shared" si="8"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5654,67 +5654,67 @@
       </c>
       <c r="E27" s="53">
         <f>$E$5</f>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="F27" s="53">
         <f t="shared" ref="F27:T27" si="10">$E$5</f>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="G27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="H27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="I27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="J27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="K27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="M27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="N27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="O27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="P27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="Q27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="R27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="S27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="T27" s="53">
         <f t="shared" si="10"/>
-        <v>0.33005307466654926</v>
+        <v>0.3968253968253968</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5866,67 +5866,67 @@
       </c>
       <c r="E30" s="53">
         <f>$E$8</f>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="F30" s="53">
         <f t="shared" ref="F30:T30" si="12">$E$8</f>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="G30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="H30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="I30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="J30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="K30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="L30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="M30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="N30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="O30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="P30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="Q30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="R30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="S30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
       <c r="T30" s="53">
         <f t="shared" si="12"/>
-        <v>2.6563868020000001</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5942,67 +5942,67 @@
       </c>
       <c r="E31" s="53">
         <f>$E$9</f>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="F31" s="53">
         <f t="shared" ref="F31:T31" si="13">$E$9</f>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="G31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="H31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="I31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="J31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="K31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="L31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="M31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="N31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="O31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="P31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="Q31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="R31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="S31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
       <c r="T31" s="53">
         <f t="shared" si="13"/>
-        <v>0.63428316309999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -6322,7 +6322,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="E38">
-        <v>3.0298157379999999</v>
+        <v>2.52</v>
       </c>
     </row>
   </sheetData>

--- a/data/DOERefBuildings/BLD14.xlsx
+++ b/data/DOERefBuildings/BLD14.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maoj\Dropbox\UWG_Matlab-master\data\DOERefBuildings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\UWG\data\DOERefBuildings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="478485" yWindow="210" windowWidth="19320" windowHeight="11490" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="461565" yWindow="210" windowWidth="19320" windowHeight="11490" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="50" r:id="rId1"/>
@@ -3646,7 +3646,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3787,13 +3787,13 @@
       <c r="K3" s="25"/>
       <c r="L3" s="32">
         <f>F3/L6</f>
-        <v>83.638140537441274</v>
+        <v>84.631627123098539</v>
       </c>
       <c r="M3" s="81">
         <v>9.9</v>
       </c>
       <c r="N3" s="81">
-        <v>13.47828054</v>
+        <v>15.7818101893365</v>
       </c>
       <c r="O3" s="81">
         <v>0</v>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="81">
-        <v>0.4974477511</v>
+        <v>0.53593736931288505</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="12.75" x14ac:dyDescent="0.15">
@@ -3843,7 +3843,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="32">
         <f>$L$3</f>
-        <v>83.638140537441274</v>
+        <v>84.631627123098539</v>
       </c>
       <c r="M4" s="81">
         <f>$M$3</f>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="N4" s="81">
         <f>$N$3</f>
-        <v>13.47828054</v>
+        <v>15.7818101893365</v>
       </c>
       <c r="O4" s="81">
         <v>0</v>
@@ -3872,7 +3872,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="81">
         <f>$U$3</f>
-        <v>0.4974477511</v>
+        <v>0.53593736931288505</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.15">
@@ -3903,7 +3903,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="32">
         <f>$L$3</f>
-        <v>83.638140537441274</v>
+        <v>84.631627123098539</v>
       </c>
       <c r="M5" s="81">
         <f>$M$3</f>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="N5" s="81">
         <f>$N$3</f>
-        <v>13.47828054</v>
+        <v>15.7818101893365</v>
       </c>
       <c r="O5" s="81">
         <v>0</v>
@@ -3932,12 +3932,12 @@
       <c r="T5" s="1"/>
       <c r="U5" s="81">
         <f>$U$3</f>
-        <v>0.4974477511</v>
+        <v>0.53593736931288505</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L6">
-        <v>24.992430599999999</v>
+        <v>24.699045663562998</v>
       </c>
     </row>
   </sheetData>
@@ -3950,7 +3950,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -4658,67 +4658,67 @@
         <v>62</v>
       </c>
       <c r="E12" s="83">
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="F12" s="83">
         <f>$E$12</f>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="G12" s="83">
         <f t="shared" ref="G12:T12" si="4">$E$12</f>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="H12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="I12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="J12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="K12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="L12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="M12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="N12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="O12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="P12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="Q12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="R12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="S12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="T12" s="83">
         <f t="shared" si="4"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5398,67 +5398,67 @@
       </c>
       <c r="E23" s="83">
         <f>$E$12</f>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="F23" s="83">
         <f t="shared" ref="F23:T23" si="9">$E$12</f>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="G23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="H23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="I23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="J23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="K23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="L23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="M23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="N23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="O23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="P23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="Q23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="R23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="S23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="T23" s="83">
         <f t="shared" si="9"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -6138,67 +6138,67 @@
       </c>
       <c r="E34" s="83">
         <f>$E$12</f>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="F34" s="83">
         <f t="shared" ref="F34:T34" si="14">$E$12</f>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="G34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="H34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="I34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="J34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="K34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="L34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="M34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="N34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="O34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="P34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="Q34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="R34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="S34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
       <c r="T34" s="83">
         <f t="shared" si="14"/>
-        <v>2.2308395280000002</v>
+        <v>3.2316396716731699</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -7308,99 +7308,99 @@
         <v>130</v>
       </c>
       <c r="G11" s="79">
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="H11" s="79">
         <f>$G$11</f>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="I11" s="79">
         <f t="shared" ref="I11:AD13" si="0">$G$11</f>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="J11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="K11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="L11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="M11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="N11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="O11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="P11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Q11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="R11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="S11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="T11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="U11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="V11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="W11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="X11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Y11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Z11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AA11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AB11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AC11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AD11" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AE11" s="79">
         <v>630</v>
@@ -7425,99 +7425,99 @@
       </c>
       <c r="G12" s="79">
         <f>$G$11</f>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="H12" s="79">
         <f t="shared" ref="H12" si="1">$G$11</f>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="I12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="J12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="K12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="L12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="M12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="N12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="O12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="P12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Q12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="R12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="S12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="T12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="U12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="V12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="W12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="X12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Y12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Z12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AA12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AB12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AC12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AD12" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AE12" s="79">
         <v>624</v>
@@ -7538,99 +7538,99 @@
       </c>
       <c r="G13" s="79">
         <f t="shared" ref="G13:V16" si="2">$G$11</f>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="H13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="I13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="J13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="K13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="L13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="M13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="N13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="O13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="P13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Q13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="R13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="S13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="T13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="U13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="V13" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="W13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="X13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Y13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Z13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AA13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AB13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AC13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AD13" s="79">
         <f t="shared" si="0"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AE13" s="79">
         <v>654</v>
@@ -7659,99 +7659,99 @@
       </c>
       <c r="G14" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="H14" s="79">
         <f t="shared" ref="H14:AD16" si="3">$G$11</f>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="I14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="J14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="K14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="L14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="M14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="N14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="O14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="P14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Q14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="R14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="S14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="T14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="U14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="V14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="W14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="X14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Y14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Z14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AA14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AB14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AC14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AD14" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AE14" s="79">
         <v>455.4</v>
@@ -7776,99 +7776,99 @@
       </c>
       <c r="G15" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="H15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="I15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="J15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="K15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="L15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="M15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="N15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="O15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="P15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Q15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="R15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="S15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="T15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="U15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="V15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="W15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="X15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Y15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Z15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AA15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AB15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AC15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AD15" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AE15" s="79">
         <v>460.8</v>
@@ -7889,99 +7889,99 @@
       </c>
       <c r="G16" s="79">
         <f t="shared" si="2"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="H16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="I16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="J16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="K16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="L16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="M16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="N16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="O16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="P16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Q16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="R16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="S16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="T16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="U16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="V16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="W16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="X16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Y16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="Z16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AA16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AB16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AC16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AD16" s="79">
         <f t="shared" si="3"/>
-        <v>20.112982349999999</v>
+        <v>23.506754202891202</v>
       </c>
       <c r="AE16" s="79">
         <v>433.8</v>

--- a/data/DOERefBuildings/BLD14.xlsx
+++ b/data/DOERefBuildings/BLD14.xlsx
@@ -3787,13 +3787,13 @@
       <c r="K3" s="25"/>
       <c r="L3" s="32">
         <f>F3/L6</f>
-        <v>84.631627123098539</v>
+        <v>125.64472990779078</v>
       </c>
       <c r="M3" s="81">
         <v>9.9</v>
       </c>
       <c r="N3" s="81">
-        <v>15.7818101893365</v>
+        <v>13.3965482697</v>
       </c>
       <c r="O3" s="81">
         <v>0</v>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="81">
-        <v>0.53593736931288505</v>
+        <v>0.55866415655852553</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="12.75" x14ac:dyDescent="0.15">
@@ -3843,7 +3843,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="32">
         <f>$L$3</f>
-        <v>84.631627123098539</v>
+        <v>125.64472990779078</v>
       </c>
       <c r="M4" s="81">
         <f>$M$3</f>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="N4" s="81">
         <f>$N$3</f>
-        <v>15.7818101893365</v>
+        <v>13.3965482697</v>
       </c>
       <c r="O4" s="81">
         <v>0</v>
@@ -3872,7 +3872,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="81">
         <f>$U$3</f>
-        <v>0.53593736931288505</v>
+        <v>0.55866415655852553</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.15">
@@ -3903,7 +3903,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="32">
         <f>$L$3</f>
-        <v>84.631627123098539</v>
+        <v>125.64472990779078</v>
       </c>
       <c r="M5" s="81">
         <f>$M$3</f>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="N5" s="81">
         <f>$N$3</f>
-        <v>15.7818101893365</v>
+        <v>13.3965482697</v>
       </c>
       <c r="O5" s="81">
         <v>0</v>
@@ -3932,12 +3932,12 @@
       <c r="T5" s="1"/>
       <c r="U5" s="81">
         <f>$U$3</f>
-        <v>0.53593736931288505</v>
+        <v>0.55866415655852553</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L6">
-        <v>24.699045663562998</v>
+        <v>16.636753681822626</v>
       </c>
     </row>
   </sheetData>
@@ -4658,67 +4658,67 @@
         <v>62</v>
       </c>
       <c r="E12" s="83">
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="F12" s="83">
         <f>$E$12</f>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="G12" s="83">
         <f t="shared" ref="G12:T12" si="4">$E$12</f>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="H12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="I12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="J12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="K12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="L12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="M12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="N12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="O12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="P12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="Q12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="R12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="S12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="T12" s="83">
         <f t="shared" si="4"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5398,67 +5398,67 @@
       </c>
       <c r="E23" s="83">
         <f>$E$12</f>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="F23" s="83">
         <f t="shared" ref="F23:T23" si="9">$E$12</f>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="G23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="H23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="I23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="J23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="K23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="L23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="M23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="N23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="O23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="P23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="Q23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="R23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="S23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="T23" s="83">
         <f t="shared" si="9"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -6138,67 +6138,67 @@
       </c>
       <c r="E34" s="83">
         <f>$E$12</f>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="F34" s="83">
         <f t="shared" ref="F34:T34" si="14">$E$12</f>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="G34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="H34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="I34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="J34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="K34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="L34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="M34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="N34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="O34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="P34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="Q34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="R34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="S34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
       <c r="T34" s="83">
         <f t="shared" si="14"/>
-        <v>3.2316396716731699</v>
+        <v>3.9660067703705058</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -7308,99 +7308,99 @@
         <v>130</v>
       </c>
       <c r="G11" s="79">
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="H11" s="79">
         <f>$G$11</f>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="I11" s="79">
         <f t="shared" ref="I11:AD13" si="0">$G$11</f>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="J11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="K11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="L11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="M11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="N11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="O11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="P11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Q11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="R11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="S11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="T11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="U11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="V11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="W11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="X11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Y11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Z11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AA11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AB11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AC11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AD11" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AE11" s="79">
         <v>630</v>
@@ -7425,99 +7425,99 @@
       </c>
       <c r="G12" s="79">
         <f>$G$11</f>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="H12" s="79">
         <f t="shared" ref="H12" si="1">$G$11</f>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="I12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="J12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="K12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="L12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="M12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="N12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="O12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="P12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Q12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="R12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="S12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="T12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="U12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="V12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="W12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="X12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Y12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Z12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AA12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AB12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AC12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AD12" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AE12" s="79">
         <v>624</v>
@@ -7538,99 +7538,99 @@
       </c>
       <c r="G13" s="79">
         <f t="shared" ref="G13:V16" si="2">$G$11</f>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="H13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="I13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="J13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="K13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="L13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="M13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="N13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="O13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="P13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Q13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="R13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="S13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="T13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="U13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="V13" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="W13" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="X13" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Y13" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Z13" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AA13" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AB13" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AC13" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AD13" s="79">
         <f t="shared" si="0"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AE13" s="79">
         <v>654</v>
@@ -7659,99 +7659,99 @@
       </c>
       <c r="G14" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="H14" s="79">
         <f t="shared" ref="H14:AD16" si="3">$G$11</f>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="I14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="J14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="K14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="L14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="M14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="N14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="O14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="P14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Q14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="R14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="S14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="T14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="U14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="V14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="W14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="X14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Y14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Z14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AA14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AB14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AC14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AD14" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AE14" s="79">
         <v>455.4</v>
@@ -7776,99 +7776,99 @@
       </c>
       <c r="G15" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="H15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="I15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="J15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="K15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="L15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="M15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="N15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="O15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="P15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Q15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="R15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="S15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="T15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="U15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="V15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="W15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="X15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Y15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Z15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AA15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AB15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AC15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AD15" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AE15" s="79">
         <v>460.8</v>
@@ -7889,99 +7889,99 @@
       </c>
       <c r="G16" s="79">
         <f t="shared" si="2"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="H16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="I16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="J16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="K16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="L16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="M16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="N16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="O16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="P16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Q16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="R16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="S16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="T16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="U16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="V16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="W16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="X16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Y16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="Z16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AA16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AB16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AC16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AD16" s="79">
         <f t="shared" si="3"/>
-        <v>23.506754202891202</v>
+        <v>23.130357207884092</v>
       </c>
       <c r="AE16" s="79">
         <v>433.8</v>

--- a/data/DOERefBuildings/BLD14.xlsx
+++ b/data/DOERefBuildings/BLD14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\UWG\data\DOERefBuildings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\UWG\data\DOERefBuildings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3787,13 +3787,13 @@
       <c r="K3" s="25"/>
       <c r="L3" s="32">
         <f>F3/L6</f>
-        <v>125.64472990779078</v>
+        <v>86.610609653146611</v>
       </c>
       <c r="M3" s="81">
         <v>9.9</v>
       </c>
       <c r="N3" s="81">
-        <v>13.3965482697</v>
+        <v>14.95076425341246</v>
       </c>
       <c r="O3" s="81">
         <v>0</v>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="81">
-        <v>0.55866415655852553</v>
+        <v>0.61445247093918787</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="12.75" x14ac:dyDescent="0.15">
@@ -3843,7 +3843,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="32">
         <f>$L$3</f>
-        <v>125.64472990779078</v>
+        <v>86.610609653146611</v>
       </c>
       <c r="M4" s="81">
         <f>$M$3</f>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="N4" s="81">
         <f>$N$3</f>
-        <v>13.3965482697</v>
+        <v>14.95076425341246</v>
       </c>
       <c r="O4" s="81">
         <v>0</v>
@@ -3872,7 +3872,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="81">
         <f>$U$3</f>
-        <v>0.55866415655852553</v>
+        <v>0.61445247093918787</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.15">
@@ -3903,7 +3903,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="32">
         <f>$L$3</f>
-        <v>125.64472990779078</v>
+        <v>86.610609653146611</v>
       </c>
       <c r="M5" s="81">
         <f>$M$3</f>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="N5" s="81">
         <f>$N$3</f>
-        <v>13.3965482697</v>
+        <v>14.95076425341246</v>
       </c>
       <c r="O5" s="81">
         <v>0</v>
@@ -3932,12 +3932,12 @@
       <c r="T5" s="1"/>
       <c r="U5" s="81">
         <f>$U$3</f>
-        <v>0.55866415655852553</v>
+        <v>0.61445247093918787</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L6">
-        <v>16.636753681822626</v>
+        <v>24.134692403924269</v>
       </c>
     </row>
   </sheetData>
@@ -4658,67 +4658,67 @@
         <v>62</v>
       </c>
       <c r="E12" s="83">
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="F12" s="83">
         <f>$E$12</f>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="G12" s="83">
         <f t="shared" ref="G12:T12" si="4">$E$12</f>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="H12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="I12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="J12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="K12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="L12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="M12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="N12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="O12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="P12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="Q12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="R12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="S12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="T12" s="83">
         <f t="shared" si="4"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -5398,67 +5398,67 @@
       </c>
       <c r="E23" s="83">
         <f>$E$12</f>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="F23" s="83">
         <f t="shared" ref="F23:T23" si="9">$E$12</f>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="G23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="H23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="I23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="J23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="K23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="L23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="M23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="N23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="O23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="P23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="Q23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="R23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="S23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="T23" s="83">
         <f t="shared" si="9"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -6138,67 +6138,67 @@
       </c>
       <c r="E34" s="83">
         <f>$E$12</f>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="F34" s="83">
         <f t="shared" ref="F34:T34" si="14">$E$12</f>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="G34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="H34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="I34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="J34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="K34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="L34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="M34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="N34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="O34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="P34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="Q34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="R34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="S34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
       <c r="T34" s="83">
         <f t="shared" si="14"/>
-        <v>3.9660067703705058</v>
+        <v>2.081018834170111</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="11.25" x14ac:dyDescent="0.15">
@@ -7308,99 +7308,99 @@
         <v>130</v>
       </c>
       <c r="G11" s="79">
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="H11" s="79">
         <f>$G$11</f>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="I11" s="79">
         <f t="shared" ref="I11:AD13" si="0">$G$11</f>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="J11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="K11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="L11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="M11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="N11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="O11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="P11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Q11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="R11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="S11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="T11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="U11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="V11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="W11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="X11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Y11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Z11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AA11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AB11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AC11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AD11" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AE11" s="79">
         <v>630</v>
@@ -7425,99 +7425,99 @@
       </c>
       <c r="G12" s="79">
         <f>$G$11</f>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="H12" s="79">
         <f t="shared" ref="H12" si="1">$G$11</f>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="I12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="J12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="K12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="L12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="M12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="N12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="O12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="P12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Q12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="R12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="S12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="T12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="U12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="V12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="W12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="X12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Y12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Z12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AA12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AB12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AC12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AD12" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AE12" s="79">
         <v>624</v>
@@ -7538,99 +7538,99 @@
       </c>
       <c r="G13" s="79">
         <f t="shared" ref="G13:V16" si="2">$G$11</f>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="H13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="I13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="J13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="K13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="L13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="M13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="N13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="O13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="P13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Q13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="R13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="S13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="T13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="U13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="V13" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="W13" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="X13" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Y13" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Z13" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AA13" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AB13" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AC13" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AD13" s="79">
         <f t="shared" si="0"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AE13" s="79">
         <v>654</v>
@@ -7659,99 +7659,99 @@
       </c>
       <c r="G14" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="H14" s="79">
         <f t="shared" ref="H14:AD16" si="3">$G$11</f>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="I14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="J14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="K14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="L14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="M14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="N14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="O14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="P14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Q14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="R14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="S14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="T14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="U14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="V14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="W14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="X14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Y14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Z14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AA14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AB14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AC14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AD14" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AE14" s="79">
         <v>455.4</v>
@@ -7776,99 +7776,99 @@
       </c>
       <c r="G15" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="H15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="I15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="J15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="K15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="L15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="M15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="N15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="O15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="P15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Q15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="R15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="S15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="T15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="U15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="V15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="W15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="X15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Y15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Z15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AA15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AB15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AC15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AD15" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AE15" s="79">
         <v>460.8</v>
@@ -7889,99 +7889,99 @@
       </c>
       <c r="G16" s="79">
         <f t="shared" si="2"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="H16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="I16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="J16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="K16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="L16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="M16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="N16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="O16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="P16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Q16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="R16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="S16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="T16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="U16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="V16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="W16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="X16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Y16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="Z16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AA16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AB16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AC16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AD16" s="79">
         <f t="shared" si="3"/>
-        <v>23.130357207884092</v>
+        <v>20.537060184260579</v>
       </c>
       <c r="AE16" s="79">
         <v>433.8</v>
